--- a/data/pca/factorExposure/factorExposure_2009-09-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01720396591403004</v>
+        <v>0.01660189805479925</v>
       </c>
       <c r="C2">
-        <v>0.001673444968401099</v>
+        <v>-0.0008488978677658401</v>
       </c>
       <c r="D2">
-        <v>-0.0006435278596765891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009044884533604115</v>
+      </c>
+      <c r="E2">
+        <v>-0.001726243715459052</v>
+      </c>
+      <c r="F2">
+        <v>0.01240473193261873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09737759606946862</v>
+        <v>0.09383535460431423</v>
       </c>
       <c r="C4">
-        <v>0.02133072914256046</v>
+        <v>-0.01444067933755823</v>
       </c>
       <c r="D4">
-        <v>0.06757178249815741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0842649745040011</v>
+      </c>
+      <c r="E4">
+        <v>-0.02870871585481354</v>
+      </c>
+      <c r="F4">
+        <v>-0.03242006979590208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.145042913242186</v>
+        <v>0.1589401348285639</v>
       </c>
       <c r="C6">
-        <v>0.02643960868168609</v>
+        <v>-0.02654349126574092</v>
       </c>
       <c r="D6">
-        <v>-0.02116654095579745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02351223091865562</v>
+      </c>
+      <c r="E6">
+        <v>-0.01066835151443054</v>
+      </c>
+      <c r="F6">
+        <v>-0.04307814683049453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06618206687755798</v>
+        <v>0.06354461051204255</v>
       </c>
       <c r="C7">
-        <v>0.003695965725562874</v>
+        <v>0.001664989773863198</v>
       </c>
       <c r="D7">
-        <v>0.0361892095162687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05247110120852571</v>
+      </c>
+      <c r="E7">
+        <v>-0.01208838504452952</v>
+      </c>
+      <c r="F7">
+        <v>-0.04745025059584657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06513278648951347</v>
+        <v>0.05758940592920935</v>
       </c>
       <c r="C8">
-        <v>-0.01000035079302424</v>
+        <v>0.01327769236533997</v>
       </c>
       <c r="D8">
-        <v>0.01692113356228815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03232370026675821</v>
+      </c>
+      <c r="E8">
+        <v>-0.01794333226974429</v>
+      </c>
+      <c r="F8">
+        <v>0.02670891094237036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07697548120052097</v>
+        <v>0.07085731961163889</v>
       </c>
       <c r="C9">
-        <v>0.01795120221945339</v>
+        <v>-0.01019481437835053</v>
       </c>
       <c r="D9">
-        <v>0.06713111835086891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.087029741874423</v>
+      </c>
+      <c r="E9">
+        <v>-0.02326755817402636</v>
+      </c>
+      <c r="F9">
+        <v>-0.04792198705416709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0841978179999498</v>
+        <v>0.09158358292341803</v>
       </c>
       <c r="C10">
-        <v>0.009010236170199191</v>
+        <v>-0.0210028359931987</v>
       </c>
       <c r="D10">
-        <v>-0.1694464475636394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1645251188318081</v>
+      </c>
+      <c r="E10">
+        <v>0.03288919775820179</v>
+      </c>
+      <c r="F10">
+        <v>0.05505195352372284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09401002242910102</v>
+        <v>0.08804816924025899</v>
       </c>
       <c r="C11">
-        <v>0.01842731723406964</v>
+        <v>-0.010280994231345</v>
       </c>
       <c r="D11">
-        <v>0.09783064366806268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171665794189286</v>
+      </c>
+      <c r="E11">
+        <v>-0.0457623725304647</v>
+      </c>
+      <c r="F11">
+        <v>-0.02314050778252438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1011543046029182</v>
+        <v>0.09200571439580639</v>
       </c>
       <c r="C12">
-        <v>0.01677834441526288</v>
+        <v>-0.007665846115033875</v>
       </c>
       <c r="D12">
-        <v>0.09722320154378754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320993559286519</v>
+      </c>
+      <c r="E12">
+        <v>-0.04570797862115492</v>
+      </c>
+      <c r="F12">
+        <v>-0.0295477030479856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04321736553121254</v>
+        <v>0.04150488192245341</v>
       </c>
       <c r="C13">
-        <v>0.006391883736017645</v>
+        <v>-0.002375797790230248</v>
       </c>
       <c r="D13">
-        <v>0.03324299926663218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05338018994060214</v>
+      </c>
+      <c r="E13">
+        <v>0.004456067918537891</v>
+      </c>
+      <c r="F13">
+        <v>-0.002937973891196661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02235772280239945</v>
+        <v>0.02393127445482985</v>
       </c>
       <c r="C14">
-        <v>0.01543442635402122</v>
+        <v>-0.01377240546581415</v>
       </c>
       <c r="D14">
-        <v>0.02443592488868009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03288735089837076</v>
+      </c>
+      <c r="E14">
+        <v>-0.01843937664730726</v>
+      </c>
+      <c r="F14">
+        <v>-0.01381878641973369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03611628088041804</v>
+        <v>0.03290682998041894</v>
       </c>
       <c r="C15">
-        <v>0.008161017069762595</v>
+        <v>-0.004622531415927047</v>
       </c>
       <c r="D15">
-        <v>0.02522517626051328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04522305790139425</v>
+      </c>
+      <c r="E15">
+        <v>-0.006089275205206832</v>
+      </c>
+      <c r="F15">
+        <v>-0.02477898088366102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08163950835588617</v>
+        <v>0.07415206221496451</v>
       </c>
       <c r="C16">
-        <v>0.00964778631072391</v>
+        <v>-0.0008385628343630322</v>
       </c>
       <c r="D16">
-        <v>0.09955910713890133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1275349546580598</v>
+      </c>
+      <c r="E16">
+        <v>-0.06010417683136435</v>
+      </c>
+      <c r="F16">
+        <v>-0.02732390962618887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006921518096405507</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001749893269657067</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001223593135181568</v>
+      </c>
+      <c r="E17">
+        <v>-0.0006898662022682245</v>
+      </c>
+      <c r="F17">
+        <v>0.001235267200402431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.006805555408188448</v>
+        <v>0.0362370914375303</v>
       </c>
       <c r="C18">
-        <v>-0.001273571228658832</v>
+        <v>0.003004520092911399</v>
       </c>
       <c r="D18">
-        <v>0.00925754659825582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01623760182880309</v>
+      </c>
+      <c r="E18">
+        <v>0.008384786918882307</v>
+      </c>
+      <c r="F18">
+        <v>0.00951884148024297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06322615684746104</v>
+        <v>0.06166573185827753</v>
       </c>
       <c r="C20">
-        <v>0.007539355334826344</v>
+        <v>7.315834741286046e-05</v>
       </c>
       <c r="D20">
-        <v>0.04564676800163674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07871176334361644</v>
+      </c>
+      <c r="E20">
+        <v>-0.05623096281460637</v>
+      </c>
+      <c r="F20">
+        <v>-0.02617247869851227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04335186057750804</v>
+        <v>0.04055724718671955</v>
       </c>
       <c r="C21">
-        <v>0.01064560906153884</v>
+        <v>-0.006357183909367428</v>
       </c>
       <c r="D21">
-        <v>0.01390593975061893</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03833591237744792</v>
+      </c>
+      <c r="E21">
+        <v>0.001367186651062794</v>
+      </c>
+      <c r="F21">
+        <v>0.02394537768549469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04190677072719615</v>
+        <v>0.04307381000525407</v>
       </c>
       <c r="C22">
-        <v>0.000242572378890696</v>
+        <v>-0.0002059008973050457</v>
       </c>
       <c r="D22">
-        <v>-0.0126780071058327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.005047547615625879</v>
+      </c>
+      <c r="E22">
+        <v>-0.03799074992940942</v>
+      </c>
+      <c r="F22">
+        <v>0.03652765209469545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04186853221960603</v>
+        <v>0.04304954126449521</v>
       </c>
       <c r="C23">
-        <v>0.000233458708786201</v>
+        <v>-0.0001973924801434609</v>
       </c>
       <c r="D23">
-        <v>-0.01265356593799081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.005063082618264758</v>
+      </c>
+      <c r="E23">
+        <v>-0.03817421243073154</v>
+      </c>
+      <c r="F23">
+        <v>0.03648996505436584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08456092496718488</v>
+        <v>0.07995305649744511</v>
       </c>
       <c r="C24">
-        <v>0.009963123879925546</v>
+        <v>-0.001521351558722337</v>
       </c>
       <c r="D24">
-        <v>0.105704074559317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1207302359483951</v>
+      </c>
+      <c r="E24">
+        <v>-0.04835074066808628</v>
+      </c>
+      <c r="F24">
+        <v>-0.02805783695791261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09152740603599059</v>
+        <v>0.08525284422106427</v>
       </c>
       <c r="C25">
-        <v>0.0121539617193288</v>
+        <v>-0.004241596622783763</v>
       </c>
       <c r="D25">
-        <v>0.08896678485617136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.109727691325803</v>
+      </c>
+      <c r="E25">
+        <v>-0.03188324966622522</v>
+      </c>
+      <c r="F25">
+        <v>-0.02773495740796773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05886519618203612</v>
+        <v>0.05888554788348842</v>
       </c>
       <c r="C26">
-        <v>0.01852204766269207</v>
+        <v>-0.01435452498117184</v>
       </c>
       <c r="D26">
-        <v>0.01337819737063926</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04115182888548552</v>
+      </c>
+      <c r="E26">
+        <v>-0.02825796842036877</v>
+      </c>
+      <c r="F26">
+        <v>0.007293886274229619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1317523547487206</v>
+        <v>0.1424521064292776</v>
       </c>
       <c r="C28">
-        <v>0.005912776616354017</v>
+        <v>-0.02243263765760034</v>
       </c>
       <c r="D28">
-        <v>-0.280438387398364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2609661372406967</v>
+      </c>
+      <c r="E28">
+        <v>0.06726980264267632</v>
+      </c>
+      <c r="F28">
+        <v>-0.007924417566917858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02753459275526338</v>
+        <v>0.0285418234207444</v>
       </c>
       <c r="C29">
-        <v>0.01016087346149043</v>
+        <v>-0.008660457959485833</v>
       </c>
       <c r="D29">
-        <v>0.01928387018352907</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0312633894597082</v>
+      </c>
+      <c r="E29">
+        <v>-0.01360947014208334</v>
+      </c>
+      <c r="F29">
+        <v>0.01296332043964072</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07075689591518844</v>
+        <v>0.05852881237968412</v>
       </c>
       <c r="C30">
-        <v>0.01015382507371817</v>
+        <v>-0.002414741322775491</v>
       </c>
       <c r="D30">
-        <v>0.07263435212487442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08958463874013722</v>
+      </c>
+      <c r="E30">
+        <v>-0.01544115075692956</v>
+      </c>
+      <c r="F30">
+        <v>-0.07778401211053632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05174710563581626</v>
+        <v>0.05102521750174722</v>
       </c>
       <c r="C31">
-        <v>0.01686383768244641</v>
+        <v>-0.01546221372764053</v>
       </c>
       <c r="D31">
-        <v>0.02282704316864634</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0250441202863733</v>
+      </c>
+      <c r="E31">
+        <v>-0.02870923054495345</v>
+      </c>
+      <c r="F31">
+        <v>0.001119466198680545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0449615846260048</v>
+        <v>0.05104058202558111</v>
       </c>
       <c r="C32">
-        <v>0.001996047679293563</v>
+        <v>0.001948167425552923</v>
       </c>
       <c r="D32">
-        <v>0.02078749695708562</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03666725836071217</v>
+      </c>
+      <c r="E32">
+        <v>-0.03433365598946191</v>
+      </c>
+      <c r="F32">
+        <v>-0.003551605472827795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09537064394223527</v>
+        <v>0.08850993456830825</v>
       </c>
       <c r="C33">
-        <v>0.01463326433989096</v>
+        <v>-0.006505221042587623</v>
       </c>
       <c r="D33">
-        <v>0.0807111263360305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1017366801652691</v>
+      </c>
+      <c r="E33">
+        <v>-0.04299617642809254</v>
+      </c>
+      <c r="F33">
+        <v>-0.0381777508278458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07537984893470039</v>
+        <v>0.0678342464393734</v>
       </c>
       <c r="C34">
-        <v>0.0167095549880648</v>
+        <v>-0.009975284058319132</v>
       </c>
       <c r="D34">
-        <v>0.09044094595451216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1098404113846825</v>
+      </c>
+      <c r="E34">
+        <v>-0.03421469570237387</v>
+      </c>
+      <c r="F34">
+        <v>-0.03400917043766424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02351575813008918</v>
+        <v>0.02527919166889366</v>
       </c>
       <c r="C35">
-        <v>0.002633395004312946</v>
+        <v>-0.002519932213455304</v>
       </c>
       <c r="D35">
-        <v>0.004696260504361656</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01146572709977547</v>
+      </c>
+      <c r="E35">
+        <v>-0.0119327120519273</v>
+      </c>
+      <c r="F35">
+        <v>-0.00122440118110084</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02261422265450086</v>
+        <v>0.02750732680527751</v>
       </c>
       <c r="C36">
-        <v>0.009054132737107798</v>
+        <v>-0.006772106838812349</v>
       </c>
       <c r="D36">
-        <v>0.02903567413069147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04010967038404672</v>
+      </c>
+      <c r="E36">
+        <v>-0.01667083042470568</v>
+      </c>
+      <c r="F36">
+        <v>-0.0156637261334226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004369653709982488</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006179614386825244</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002254177860558526</v>
+      </c>
+      <c r="E37">
+        <v>0.001158188135488645</v>
+      </c>
+      <c r="F37">
+        <v>-5.535146661751101e-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.000270395769189098</v>
+        <v>0.0002604009699256146</v>
       </c>
       <c r="C38">
-        <v>6.462315161678965e-05</v>
+        <v>-0.00010430737911913</v>
       </c>
       <c r="D38">
-        <v>-0.001664308152892168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.001208378502924383</v>
+      </c>
+      <c r="E38">
+        <v>0.0008509324200338395</v>
+      </c>
+      <c r="F38">
+        <v>-0.0004551705930189914</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1195508130566199</v>
+        <v>0.1039876182444736</v>
       </c>
       <c r="C39">
-        <v>0.02583279963060657</v>
+        <v>-0.01538781306711448</v>
       </c>
       <c r="D39">
-        <v>0.1412215105866652</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1549463661764603</v>
+      </c>
+      <c r="E39">
+        <v>-0.05921237192746539</v>
+      </c>
+      <c r="F39">
+        <v>-0.03018184203656868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03635143286536595</v>
+        <v>0.04132474781629881</v>
       </c>
       <c r="C40">
-        <v>0.009827314022384322</v>
+        <v>-0.007089306300994439</v>
       </c>
       <c r="D40">
-        <v>-0.004531392755643118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03116320330553314</v>
+      </c>
+      <c r="E40">
+        <v>-0.001960494932072209</v>
+      </c>
+      <c r="F40">
+        <v>0.01610945444076568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02472908569312368</v>
+        <v>0.02780702599713863</v>
       </c>
       <c r="C41">
-        <v>0.007748114843075819</v>
+        <v>-0.00682280333726437</v>
       </c>
       <c r="D41">
-        <v>0.006422384052218177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01114227426723325</v>
+      </c>
+      <c r="E41">
+        <v>-0.01258982775165</v>
+      </c>
+      <c r="F41">
+        <v>0.005910629402891803</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04033427934457304</v>
+        <v>0.04060810099488704</v>
       </c>
       <c r="C43">
-        <v>0.008638302644874894</v>
+        <v>-0.007021365161332657</v>
       </c>
       <c r="D43">
-        <v>0.008920020687916346</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01901822300878893</v>
+      </c>
+      <c r="E43">
+        <v>-0.0252710718967834</v>
+      </c>
+      <c r="F43">
+        <v>0.01225735298707734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08053562231500763</v>
+        <v>0.07916453065817212</v>
       </c>
       <c r="C44">
-        <v>0.02810625892722735</v>
+        <v>-0.01911716760537064</v>
       </c>
       <c r="D44">
-        <v>0.07267125903718955</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09766159191632098</v>
+      </c>
+      <c r="E44">
+        <v>-0.06119461967488282</v>
+      </c>
+      <c r="F44">
+        <v>-0.157417479653481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01861483059293965</v>
+        <v>0.02305314990275241</v>
       </c>
       <c r="C46">
-        <v>0.003967023955651649</v>
+        <v>-0.003194052028794744</v>
       </c>
       <c r="D46">
-        <v>-0.0007403659864031145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01375511072725595</v>
+      </c>
+      <c r="E46">
+        <v>-0.02609720468300849</v>
+      </c>
+      <c r="F46">
+        <v>0.005490121680754391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05176207099635489</v>
+        <v>0.05275317422731748</v>
       </c>
       <c r="C47">
-        <v>0.004577872351547342</v>
+        <v>-0.003578415028073154</v>
       </c>
       <c r="D47">
-        <v>0.002191879203012625</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0124495451978958</v>
+      </c>
+      <c r="E47">
+        <v>-0.02388899697087311</v>
+      </c>
+      <c r="F47">
+        <v>0.03154915224368296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04639920570134814</v>
+        <v>0.05037107583868924</v>
       </c>
       <c r="C48">
-        <v>0.006204117389260601</v>
+        <v>-0.00216291689917823</v>
       </c>
       <c r="D48">
-        <v>0.03565184916939346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05051648061589278</v>
+      </c>
+      <c r="E48">
+        <v>0.004693120283602743</v>
+      </c>
+      <c r="F48">
+        <v>-0.009916293539560429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2022362136293153</v>
+        <v>0.2001826820800772</v>
       </c>
       <c r="C49">
-        <v>0.01854991066999792</v>
+        <v>-0.0188848215623843</v>
       </c>
       <c r="D49">
-        <v>-0.006731055280565465</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007037145942971986</v>
+      </c>
+      <c r="E49">
+        <v>-0.02995317785780887</v>
+      </c>
+      <c r="F49">
+        <v>-0.03746799996065711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05133550942817051</v>
+        <v>0.05134344054717559</v>
       </c>
       <c r="C50">
-        <v>0.01304813107057757</v>
+        <v>-0.01117790315310299</v>
       </c>
       <c r="D50">
-        <v>0.02121807842938858</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02449421661170261</v>
+      </c>
+      <c r="E50">
+        <v>-0.03016827687455562</v>
+      </c>
+      <c r="F50">
+        <v>-0.009579318513816439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1564786644276609</v>
+        <v>0.1485904741647913</v>
       </c>
       <c r="C52">
-        <v>0.018738219942921</v>
+        <v>-0.01723919816248865</v>
       </c>
       <c r="D52">
-        <v>0.0578489852263733</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04252343434787047</v>
+      </c>
+      <c r="E52">
+        <v>-0.02101692563114767</v>
+      </c>
+      <c r="F52">
+        <v>-0.0434415786209809</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1708532440673016</v>
+        <v>0.1712555053209207</v>
       </c>
       <c r="C53">
-        <v>0.01761318872458094</v>
+        <v>-0.01976523386134621</v>
       </c>
       <c r="D53">
-        <v>0.0304689111760969</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005429875833965037</v>
+      </c>
+      <c r="E53">
+        <v>-0.02924855512982415</v>
+      </c>
+      <c r="F53">
+        <v>-0.07479051366709744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02117432622291003</v>
+        <v>0.02034691330032062</v>
       </c>
       <c r="C54">
-        <v>0.01285851354518323</v>
+        <v>-0.01118873475788291</v>
       </c>
       <c r="D54">
-        <v>0.02381036554717351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03472829034229284</v>
+      </c>
+      <c r="E54">
+        <v>-0.02222770903476892</v>
+      </c>
+      <c r="F54">
+        <v>0.005642354330495545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1163950988382203</v>
+        <v>0.114640992945927</v>
       </c>
       <c r="C55">
-        <v>0.01621149662421853</v>
+        <v>-0.01744693380172262</v>
       </c>
       <c r="D55">
-        <v>0.02505117845615396</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007691778462707995</v>
+      </c>
+      <c r="E55">
+        <v>-0.02431796805089917</v>
+      </c>
+      <c r="F55">
+        <v>-0.0477372409279882</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.178341422937922</v>
+        <v>0.1767810288071935</v>
       </c>
       <c r="C56">
-        <v>0.01547760066374299</v>
+        <v>-0.01757050442364133</v>
       </c>
       <c r="D56">
-        <v>0.01708371438062907</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001540333533878486</v>
+      </c>
+      <c r="E56">
+        <v>-0.03393274502220608</v>
+      </c>
+      <c r="F56">
+        <v>-0.05263140094972091</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04521459213203852</v>
+        <v>0.04493652812415381</v>
       </c>
       <c r="C58">
-        <v>0.006876995465983526</v>
+        <v>0.0004493232374332406</v>
       </c>
       <c r="D58">
-        <v>0.05031053586464232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07199900282555964</v>
+      </c>
+      <c r="E58">
+        <v>-0.03243014175582946</v>
+      </c>
+      <c r="F58">
+        <v>0.0389218106187976</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1646504921297693</v>
+        <v>0.1681784892322424</v>
       </c>
       <c r="C59">
-        <v>0.007328286293159045</v>
+        <v>-0.02262723997054958</v>
       </c>
       <c r="D59">
-        <v>-0.2250418810310316</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2169049464132295</v>
+      </c>
+      <c r="E59">
+        <v>0.04553469136809019</v>
+      </c>
+      <c r="F59">
+        <v>0.0361021204877184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2402815725440215</v>
+        <v>0.2317803864200423</v>
       </c>
       <c r="C60">
-        <v>-0.000764979263003843</v>
+        <v>0.002264908016950148</v>
       </c>
       <c r="D60">
-        <v>0.06006464228855512</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0414098315953504</v>
+      </c>
+      <c r="E60">
+        <v>-0.008864119309109554</v>
+      </c>
+      <c r="F60">
+        <v>0.005246315227572068</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09313000073131916</v>
+        <v>0.07997041530223249</v>
       </c>
       <c r="C61">
-        <v>0.01888275681399568</v>
+        <v>-0.01102870883762628</v>
       </c>
       <c r="D61">
-        <v>0.09751323579182278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1181213799038746</v>
+      </c>
+      <c r="E61">
+        <v>-0.03895001810236633</v>
+      </c>
+      <c r="F61">
+        <v>-0.01406382101427782</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1725574333404211</v>
+        <v>0.1695772840245621</v>
       </c>
       <c r="C62">
-        <v>0.01942916212656793</v>
+        <v>-0.02064725985795939</v>
       </c>
       <c r="D62">
-        <v>0.01503795520172543</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005685490277077239</v>
+      </c>
+      <c r="E62">
+        <v>-0.03367812125519491</v>
+      </c>
+      <c r="F62">
+        <v>-0.03612645454519663</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0466995155783961</v>
+        <v>0.04549878240425467</v>
       </c>
       <c r="C63">
-        <v>0.006640129955163704</v>
+        <v>-0.001587080818025517</v>
       </c>
       <c r="D63">
-        <v>0.04234703338880426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05935995613143791</v>
+      </c>
+      <c r="E63">
+        <v>-0.02324671079412913</v>
+      </c>
+      <c r="F63">
+        <v>-0.00335632273538039</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1070648988896185</v>
+        <v>0.1104982876807584</v>
       </c>
       <c r="C64">
-        <v>0.01515905799077588</v>
+        <v>-0.01137176199472818</v>
       </c>
       <c r="D64">
-        <v>0.02488768649886729</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04379988423698348</v>
+      </c>
+      <c r="E64">
+        <v>-0.02270888732667374</v>
+      </c>
+      <c r="F64">
+        <v>-0.02469390364710916</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1375053234236437</v>
+        <v>0.1505310473646079</v>
       </c>
       <c r="C65">
-        <v>0.03174356437685252</v>
+        <v>-0.03404534054488999</v>
       </c>
       <c r="D65">
-        <v>-0.04266088021605172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04378498959699092</v>
+      </c>
+      <c r="E65">
+        <v>-0.006596677353106721</v>
+      </c>
+      <c r="F65">
+        <v>-0.03797764916403985</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.145475792861041</v>
+        <v>0.1234881074244896</v>
       </c>
       <c r="C66">
-        <v>0.02278780136039855</v>
+        <v>-0.01327766724939968</v>
       </c>
       <c r="D66">
-        <v>0.1226247083222406</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1433614649268093</v>
+      </c>
+      <c r="E66">
+        <v>-0.06515028036252152</v>
+      </c>
+      <c r="F66">
+        <v>-0.03442998967863758</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06174379968615636</v>
+        <v>0.05761036053464014</v>
       </c>
       <c r="C67">
-        <v>0.006292200302913122</v>
+        <v>-0.00283446379311133</v>
       </c>
       <c r="D67">
-        <v>0.05492757340135522</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05537853480076421</v>
+      </c>
+      <c r="E67">
+        <v>-0.01648961665863438</v>
+      </c>
+      <c r="F67">
+        <v>0.03144364171436299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1018622145719896</v>
+        <v>0.1166755824003507</v>
       </c>
       <c r="C68">
-        <v>0.01583979106209386</v>
+        <v>-0.0331763555664957</v>
       </c>
       <c r="D68">
-        <v>-0.2749509120226818</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2610711015636729</v>
+      </c>
+      <c r="E68">
+        <v>0.08722562125721495</v>
+      </c>
+      <c r="F68">
+        <v>-0.002944124884900767</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0415067360620739</v>
+        <v>0.03916892960587532</v>
       </c>
       <c r="C69">
-        <v>0.00101383880604506</v>
+        <v>-0.001174366605921364</v>
       </c>
       <c r="D69">
-        <v>0.01172752616647067</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008873036440539796</v>
+      </c>
+      <c r="E69">
+        <v>-0.02440281750595372</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006371646663425732</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06535783094033672</v>
+        <v>0.06665194035044894</v>
       </c>
       <c r="C70">
-        <v>-0.02345341159150331</v>
+        <v>0.02745817291611202</v>
       </c>
       <c r="D70">
-        <v>-0.02447989411603453</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02469496463818526</v>
+      </c>
+      <c r="E70">
+        <v>0.03181966600842562</v>
+      </c>
+      <c r="F70">
+        <v>0.186355724172162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1191629757359406</v>
+        <v>0.1364245959277746</v>
       </c>
       <c r="C71">
-        <v>0.01948504813966122</v>
+        <v>-0.03749381032207781</v>
       </c>
       <c r="D71">
-        <v>-0.2932138840794744</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723263769468668</v>
+      </c>
+      <c r="E71">
+        <v>0.09744680780141801</v>
+      </c>
+      <c r="F71">
+        <v>-0.008581686312599675</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1374323629676424</v>
+        <v>0.1425419415913878</v>
       </c>
       <c r="C72">
-        <v>0.02630237571676801</v>
+        <v>-0.02714301999304048</v>
       </c>
       <c r="D72">
-        <v>0.006437020624158324</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003479478522072578</v>
+      </c>
+      <c r="E72">
+        <v>-0.03697545781085376</v>
+      </c>
+      <c r="F72">
+        <v>-0.03235090906901166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2047443870324689</v>
+        <v>0.2041622299826123</v>
       </c>
       <c r="C73">
-        <v>0.01435295902532747</v>
+        <v>-0.0129431808786756</v>
       </c>
       <c r="D73">
-        <v>0.02989021351781055</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01632835517383817</v>
+      </c>
+      <c r="E73">
+        <v>-0.06211091150685474</v>
+      </c>
+      <c r="F73">
+        <v>-0.03797864538502865</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09103576456987708</v>
+        <v>0.09470838462225187</v>
       </c>
       <c r="C74">
-        <v>0.01259184708042227</v>
+        <v>-0.01335086367571177</v>
       </c>
       <c r="D74">
-        <v>0.0324330031755815</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01685029286680049</v>
+      </c>
+      <c r="E74">
+        <v>-0.04390886691861257</v>
+      </c>
+      <c r="F74">
+        <v>-0.05824689319854116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1348122924023109</v>
+        <v>0.1275112051586226</v>
       </c>
       <c r="C75">
-        <v>0.02852692586520469</v>
+        <v>-0.02826558159211098</v>
       </c>
       <c r="D75">
-        <v>0.04372050840654543</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03039833819444917</v>
+      </c>
+      <c r="E75">
+        <v>-0.05796689622347242</v>
+      </c>
+      <c r="F75">
+        <v>-0.02297051482890712</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07960097550456255</v>
+        <v>0.08891291326090044</v>
       </c>
       <c r="C77">
-        <v>0.01663860249363034</v>
+        <v>-0.008043107138179538</v>
       </c>
       <c r="D77">
-        <v>0.09467157341409764</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1124687944836518</v>
+      </c>
+      <c r="E77">
+        <v>-0.04153985071856905</v>
+      </c>
+      <c r="F77">
+        <v>-0.03476629593009821</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1047196214220296</v>
+        <v>0.1003786996948491</v>
       </c>
       <c r="C78">
-        <v>0.04826625667086903</v>
+        <v>-0.03935154689871173</v>
       </c>
       <c r="D78">
-        <v>0.09724348463037137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1132645038318686</v>
+      </c>
+      <c r="E78">
+        <v>-0.07422056037755646</v>
+      </c>
+      <c r="F78">
+        <v>-0.05099442833717469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1658845314589363</v>
+        <v>0.1635494193984283</v>
       </c>
       <c r="C79">
-        <v>0.02276407817025699</v>
+        <v>-0.02297023560681927</v>
       </c>
       <c r="D79">
-        <v>0.01806041281145208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01475108145000199</v>
+      </c>
+      <c r="E79">
+        <v>-0.04634587650976548</v>
+      </c>
+      <c r="F79">
+        <v>-0.0125788472839138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0888454799993697</v>
+        <v>0.08200413556351935</v>
       </c>
       <c r="C80">
-        <v>0.002113789537730705</v>
+        <v>0.001065066419530057</v>
       </c>
       <c r="D80">
-        <v>0.04894889308407563</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05706338938433163</v>
+      </c>
+      <c r="E80">
+        <v>-0.03582196355212083</v>
+      </c>
+      <c r="F80">
+        <v>0.02238236028141569</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.121418243870583</v>
+        <v>0.1187623903230611</v>
       </c>
       <c r="C81">
-        <v>0.03024211333473114</v>
+        <v>-0.03184812292189967</v>
       </c>
       <c r="D81">
-        <v>0.04569833796998595</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01566925140228529</v>
+      </c>
+      <c r="E81">
+        <v>-0.05733855280018009</v>
+      </c>
+      <c r="F81">
+        <v>-0.0187152351773359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1620988455312702</v>
+        <v>0.1651334417716729</v>
       </c>
       <c r="C82">
-        <v>0.02280242548469499</v>
+        <v>-0.0248463155978656</v>
       </c>
       <c r="D82">
-        <v>0.02947450451355199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00422725814884734</v>
+      </c>
+      <c r="E82">
+        <v>-0.0265582264672717</v>
+      </c>
+      <c r="F82">
+        <v>-0.08199646069921138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07047116015014493</v>
+        <v>0.05855502848394176</v>
       </c>
       <c r="C83">
-        <v>0.006683654828779351</v>
+        <v>-0.002726949165380978</v>
       </c>
       <c r="D83">
-        <v>0.0280069435070135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0507707535145584</v>
+      </c>
+      <c r="E83">
+        <v>-0.003043057040597397</v>
+      </c>
+      <c r="F83">
+        <v>0.0295831613318057</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06793032155809087</v>
+        <v>0.05950563576995503</v>
       </c>
       <c r="C84">
-        <v>0.01521344485187896</v>
+        <v>-0.01125222054932658</v>
       </c>
       <c r="D84">
-        <v>0.05905445859206929</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0629515988778791</v>
+      </c>
+      <c r="E84">
+        <v>-0.007277068259414965</v>
+      </c>
+      <c r="F84">
+        <v>-0.005807966009762023</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1386300691568153</v>
+        <v>0.1355563888283481</v>
       </c>
       <c r="C85">
-        <v>0.02750911880395198</v>
+        <v>-0.02825012810392153</v>
       </c>
       <c r="D85">
-        <v>0.02384749694256592</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009650931821090641</v>
+      </c>
+      <c r="E85">
+        <v>-0.03658478649951719</v>
+      </c>
+      <c r="F85">
+        <v>-0.04802138997739294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.100446691883491</v>
+        <v>0.09436919372828735</v>
       </c>
       <c r="C86">
-        <v>-0.0009514125137619409</v>
+        <v>0.005672506436203047</v>
       </c>
       <c r="D86">
-        <v>-0.03541041736096345</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04287911014313182</v>
+      </c>
+      <c r="E86">
+        <v>-0.2300455610889235</v>
+      </c>
+      <c r="F86">
+        <v>0.9032306776100296</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.100047552576756</v>
+        <v>0.09479191473671553</v>
       </c>
       <c r="C87">
-        <v>0.03020325615469437</v>
+        <v>-0.01926220717509394</v>
       </c>
       <c r="D87">
-        <v>0.05238878154683844</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09395843075179448</v>
+      </c>
+      <c r="E87">
+        <v>0.05379664451228788</v>
+      </c>
+      <c r="F87">
+        <v>-0.04539011260056181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0589598210520477</v>
+        <v>0.06042089050891093</v>
       </c>
       <c r="C88">
-        <v>0.006340720279845244</v>
+        <v>-0.002083032343419834</v>
       </c>
       <c r="D88">
-        <v>0.04711566930691163</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04996409605640074</v>
+      </c>
+      <c r="E88">
+        <v>-0.02442373841131093</v>
+      </c>
+      <c r="F88">
+        <v>-0.01409007618064626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1174092832183957</v>
+        <v>0.1293957601217889</v>
       </c>
       <c r="C89">
-        <v>-0.001902402142534565</v>
+        <v>-0.01362632599883008</v>
       </c>
       <c r="D89">
-        <v>-0.2765748321220524</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2457684564322345</v>
+      </c>
+      <c r="E89">
+        <v>0.08925694637742607</v>
+      </c>
+      <c r="F89">
+        <v>0.009572493114654237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1300993359606438</v>
+        <v>0.1513155353278392</v>
       </c>
       <c r="C90">
-        <v>0.01682794606515712</v>
+        <v>-0.03431252245790654</v>
       </c>
       <c r="D90">
-        <v>-0.2926841725069352</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2709379432771098</v>
+      </c>
+      <c r="E90">
+        <v>0.1137915701639642</v>
+      </c>
+      <c r="F90">
+        <v>0.008202980139834185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.120642125861105</v>
+        <v>0.121319425103916</v>
       </c>
       <c r="C91">
-        <v>0.01724067828552916</v>
+        <v>-0.01998440558596491</v>
       </c>
       <c r="D91">
-        <v>0.00411923399627658</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01533858863250705</v>
+      </c>
+      <c r="E91">
+        <v>-0.05557872908650184</v>
+      </c>
+      <c r="F91">
+        <v>-7.919711093508408e-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1419202407780685</v>
+        <v>0.1478063096056995</v>
       </c>
       <c r="C92">
-        <v>0.00498936428890398</v>
+        <v>-0.02487813543852675</v>
       </c>
       <c r="D92">
-        <v>-0.3159540888928125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2909979851929863</v>
+      </c>
+      <c r="E92">
+        <v>0.1015821017417136</v>
+      </c>
+      <c r="F92">
+        <v>0.01270163105792703</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1357933629463801</v>
+        <v>0.1514116635954748</v>
       </c>
       <c r="C93">
-        <v>0.01215129653289425</v>
+        <v>-0.02934197130485738</v>
       </c>
       <c r="D93">
-        <v>-0.2765483819017461</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2672443928491126</v>
+      </c>
+      <c r="E93">
+        <v>0.07805615104070944</v>
+      </c>
+      <c r="F93">
+        <v>-0.002534203081928325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1350120607554571</v>
+        <v>0.128483140018536</v>
       </c>
       <c r="C94">
-        <v>0.02562368615695177</v>
+        <v>-0.0246730756579398</v>
       </c>
       <c r="D94">
-        <v>0.06029879429780119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04145874308552999</v>
+      </c>
+      <c r="E94">
+        <v>-0.05730991730751836</v>
+      </c>
+      <c r="F94">
+        <v>-0.03643295953876358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1283352922962998</v>
+        <v>0.1266261418918782</v>
       </c>
       <c r="C95">
-        <v>0.01129703670373888</v>
+        <v>-0.003183609298685594</v>
       </c>
       <c r="D95">
-        <v>0.07146742312746077</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09498066021963619</v>
+      </c>
+      <c r="E95">
+        <v>-0.05021746447557764</v>
+      </c>
+      <c r="F95">
+        <v>0.007697824962594074</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1110345480313013</v>
+        <v>0.1093464439300708</v>
       </c>
       <c r="C96">
-        <v>-0.9883842901535912</v>
+        <v>0.9870631858271026</v>
       </c>
       <c r="D96">
-        <v>0.01184225041310084</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05189977267204503</v>
+      </c>
+      <c r="E96">
+        <v>-0.05268039237802899</v>
+      </c>
+      <c r="F96">
+        <v>-0.04280563070863486</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1918635053244826</v>
+        <v>0.1909918784003716</v>
       </c>
       <c r="C97">
-        <v>-0.007441374059406941</v>
+        <v>0.006950720096241455</v>
       </c>
       <c r="D97">
-        <v>-0.03906110420848404</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02048138725859592</v>
+      </c>
+      <c r="E97">
+        <v>-0.02206409965238119</v>
+      </c>
+      <c r="F97">
+        <v>0.09669215001591379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.194837340457714</v>
+        <v>0.206110831443102</v>
       </c>
       <c r="C98">
-        <v>0.01044702696023091</v>
+        <v>-0.007182410429297336</v>
       </c>
       <c r="D98">
-        <v>-0.002204607899610869</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01264284877515411</v>
+      </c>
+      <c r="E98">
+        <v>0.07778511602263911</v>
+      </c>
+      <c r="F98">
+        <v>0.09334147005302394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05444812311849653</v>
+        <v>0.05473369260182132</v>
       </c>
       <c r="C99">
-        <v>-0.001923537432211209</v>
+        <v>0.004526882091177621</v>
       </c>
       <c r="D99">
-        <v>0.02077666833520339</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03943031645742973</v>
+      </c>
+      <c r="E99">
+        <v>-0.02201417156385166</v>
+      </c>
+      <c r="F99">
+        <v>-0.003549173733486568</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.131709555063466</v>
+        <v>0.1281209861228931</v>
       </c>
       <c r="C100">
-        <v>-0.02815455758446025</v>
+        <v>0.05339793667472756</v>
       </c>
       <c r="D100">
-        <v>0.3652332767026523</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3466088393926673</v>
+      </c>
+      <c r="E100">
+        <v>0.8854775642982944</v>
+      </c>
+      <c r="F100">
+        <v>0.1584606180431267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02737803181351913</v>
+        <v>0.02850369109486581</v>
       </c>
       <c r="C101">
-        <v>0.0101118245998662</v>
+        <v>-0.008685244327414769</v>
       </c>
       <c r="D101">
-        <v>0.01865690472118484</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03086864406804186</v>
+      </c>
+      <c r="E101">
+        <v>-0.01301563680452366</v>
+      </c>
+      <c r="F101">
+        <v>0.01418737838334882</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
